--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118877.0828273756</v>
+        <v>21195608.30429931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118877.0828273756</v>
+        <v>21195608.30429931</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35015.04882701889</v>
+        <v>4385441.321739352</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35015.04882701889</v>
+        <v>4385441.321739352</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417746433.902404</v>
+        <v>52171287.80581654</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10978.62819580605</v>
+        <v>1097565.72973423</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21451.74156326057</v>
+        <v>2134531.394195272</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31900.09608059483</v>
+        <v>3171108.260948324</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42425.20777038892</v>
+        <v>4202201.050395714</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52884.63901708619</v>
+        <v>5250608.101365316</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63084.30967603964</v>
+        <v>6323818.85482864</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73318.49261987116</v>
+        <v>7428738.975277889</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83478.29835371611</v>
+        <v>8531593.134546518</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94269.26868955354</v>
+        <v>9561790.545580054</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104283.1683424799</v>
+        <v>10684949.21822448</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114193.6150329493</v>
+        <v>11821495.15099123</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124121.8024591991</v>
+        <v>12956899.63486021</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134035.7640231717</v>
+        <v>14092304.11872924</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144679.4903449388</v>
+        <v>15120224.05398981</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156738.2144757293</v>
+        <v>15903016.41993913</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>395.0000000000554</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>329.0000000000566</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>76</v>
